--- a/PUNE.xlsx
+++ b/PUNE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShrirangP\Documents\GitHub\ISPS2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ISPS2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9D6CC8-74CD-477E-B99E-469D3332A293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D5387-5285-43DA-B3F1-0E9E84AB5238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8838C9BE-8A84-4600-BD78-9EF4E0424EE0}"/>
+    <workbookView minimized="1" xWindow="2475" yWindow="2475" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{8838C9BE-8A84-4600-BD78-9EF4E0424EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="GEV" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,36 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="37">
   <si>
     <t>Parameter Estimates</t>
-  </si>
-  <si>
-    <t>GEV00</t>
-  </si>
-  <si>
-    <t>GEV10</t>
-  </si>
-  <si>
-    <t>GEV11</t>
-  </si>
-  <si>
-    <t>GEV01</t>
-  </si>
-  <si>
-    <t>GEV20</t>
-  </si>
-  <si>
-    <t>GEV02</t>
-  </si>
-  <si>
-    <t>GEV12</t>
-  </si>
-  <si>
-    <t>GEV21</t>
-  </si>
-  <si>
-    <t>GEV22</t>
   </si>
   <si>
     <t>ξ</t>
@@ -358,6 +329,39 @@
   </si>
   <si>
     <t>NSGP1</t>
+  </si>
+  <si>
+    <t>BM00</t>
+  </si>
+  <si>
+    <t>BM10</t>
+  </si>
+  <si>
+    <t>BM01</t>
+  </si>
+  <si>
+    <t>BM11</t>
+  </si>
+  <si>
+    <t>BM20</t>
+  </si>
+  <si>
+    <t>BM02</t>
+  </si>
+  <si>
+    <t>BM12</t>
+  </si>
+  <si>
+    <t>BM21</t>
+  </si>
+  <si>
+    <t>BM22</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -776,13 +780,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE48E3-A14A-4842-88F9-68E3333B7EED}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -792,45 +796,45 @@
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0.34160000000000001</v>
@@ -860,9 +864,9 @@
         <v>0.36243999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>0.12509999999999999</v>
@@ -880,85 +884,85 @@
         <v>0.12831999999999999</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I3" s="4">
         <v>0.1192</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>60.21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5">
         <v>59.634700000000002</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G4" s="5">
         <v>59.673999999999999</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4">
         <v>3.194</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4">
         <v>3.2942</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4">
         <v>23.056899999999999</v>
@@ -967,30 +971,30 @@
         <v>23.145499999999998</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F6" s="5">
         <v>23.2087</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4">
         <v>2.7690999999999999</v>
@@ -999,39 +1003,39 @@
         <v>2.7046999999999999</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F7" s="5">
         <v>2.7837999999999998</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4">
         <v>54.982900000000001</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5">
         <v>50.0608</v>
@@ -1040,7 +1044,7 @@
         <v>57.436799999999998</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4">
         <v>50.044699999999999</v>
@@ -1052,18 +1056,18 @@
         <v>59.1997</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4">
         <v>4.7530000000000001</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5">
         <v>5.08</v>
@@ -1072,30 +1076,30 @@
         <v>8.5104000000000006</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I9" s="4">
         <v>5.8962000000000003</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4">
         <v>0.16420000000000001</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5">
         <v>0.2949</v>
@@ -1104,7 +1108,7 @@
         <v>5.0600000000000003E-3</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H10" s="4">
         <v>0.29525000000000001</v>
@@ -1116,18 +1120,18 @@
         <v>-0.63090000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4">
         <v>0.1171</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5">
         <v>0.13833000000000001</v>
@@ -1136,42 +1140,42 @@
         <v>0.45960000000000001</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I11" s="4">
         <v>0.43609999999999999</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F12" s="5">
         <v>1.964E-3</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I12" s="4">
         <v>9.7800000000000005E-3</v>
@@ -1181,48 +1185,48 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5">
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I13" s="4">
         <v>6.7099999999999998E-3</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1">
         <f>EXP(3.0249)</f>
@@ -1233,7 +1237,7 @@
         <v>16.52377082140093</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G14" s="5">
         <f>EXP(2.945)</f>
@@ -1254,15 +1258,15 @@
       <c r="L14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4">
         <f>EXP(0.227)</f>
@@ -1273,33 +1277,36 @@
         <v>1.2485713778642835</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I15" s="4">
         <f>EXP(0.2861)</f>
         <v>1.331225571153501</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L15" s="3"/>
+      <c r="M15" t="s">
+        <v>36</v>
+      </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5">
         <f>EXP(0.0029)</f>
@@ -1310,7 +1317,7 @@
         <v>1.0083849584833691</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G16" s="5">
         <f>EXP(0.00857)</f>
@@ -1329,15 +1336,15 @@
         <v>0.99501247919268232</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D17" s="5">
         <f>EXP(0.0051)</f>
@@ -1348,40 +1355,40 @@
         <v>1.0048818777236772</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I17" s="4">
         <f>EXP(0.0065)</f>
         <v>1.0065211708453077</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G18" s="5">
         <f>EXP(-0.0000714)</f>
@@ -1392,155 +1399,166 @@
         <v>1.000001300000845</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J18" s="4">
         <f>EXP(0.000249)</f>
         <v>1.0002490310030732</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4">
         <v>358.35899999999998</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>357.30779999999999</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <v>358.18389999999999</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>355.86360000000002</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <v>357.24369999999999</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G21" s="4">
         <v>358.14940000000001</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="4">
         <v>355.8639</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I21" s="4">
         <v>354.80180000000001</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J21" s="4">
         <v>354.38330000000002</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4">
         <v>722.71799999999996</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>722.6155</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="4">
         <v>724.36770000000001</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <v>721.72720000000004</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>724.48739999999998</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="4">
         <v>726.29880000000003</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="4">
         <v>723.72770000000003</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="4">
         <v>721.6037</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J22" s="4">
         <v>722.76660000000004</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4">
         <v>729.58939999999996</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C23" s="4">
         <v>731.77739999999994</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D23" s="4">
         <v>733.52949999999998</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <v>733.17949999999996</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="4">
         <v>735.93970000000002</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G23" s="4">
         <v>737.75109999999995</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H23" s="4">
         <v>737.47050000000002</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I23" s="4">
         <v>735.34640000000002</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J23" s="4">
         <v>738.7998</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O26" s="3"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P31" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1552,31 +1570,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA1F631-450F-4F54-8752-A6508D610A2B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="1"/>
+    <col min="2" max="3" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>115.6</v>
@@ -1585,9 +1601,9 @@
         <v>115.6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>43.22</v>
@@ -1596,110 +1612,110 @@
         <v>5.4300000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>12.110099999999999</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.12590000000000001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>0.22109999999999999</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <f>EXP(2.722)</f>
         <v>15.210713270338847</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <f>EXP(0.0000595)</f>
         <v>1.0000595017701601</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>161.49639999999999</v>
@@ -1708,9 +1724,9 @@
         <v>160.3931</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
         <v>326.99290000000002</v>
@@ -1719,9 +1735,9 @@
         <v>326.78629999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>329.98590000000002</v>
